--- a/new-stats/st-johnstone-fc.xlsx
+++ b/new-stats/st-johnstone-fc.xlsx
@@ -2452,22 +2452,62 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M36" t="n">
+        <v>18</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/st-johnstone-fc.xlsx
+++ b/new-stats/st-johnstone-fc.xlsx
@@ -2510,22 +2510,62 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M37" t="n">
+        <v>21</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>

--- a/new-stats/st-johnstone-fc.xlsx
+++ b/new-stats/st-johnstone-fc.xlsx
@@ -2568,40 +2568,120 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9</v>
+      </c>
+      <c r="N38" t="n">
+        <v>11</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Dundee FC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M39" t="n">
+        <v>13</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>

--- a/new-stats/st-johnstone-fc.xlsx
+++ b/new-stats/st-johnstone-fc.xlsx
@@ -516,22 +516,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Partick Thistle</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>24</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
